--- a/biology/Médecine/CYFRA_21-1/CYFRA_21-1.xlsx
+++ b/biology/Médecine/CYFRA_21-1/CYFRA_21-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cyfra 21-1 est un marqueur tumoral qui, en dosant un fragment de cytokératine 19 (Cytokeratin-21-Fragment), permet la surveillance évolutive des cellules cancéreuses pulmonaires (carcinome épidermoïde).
-Il n'est pas utile pour le suivi des patients sous chimiothérapie ni en cas de récidive tumorale[1].
+Il n'est pas utile pour le suivi des patients sous chimiothérapie ni en cas de récidive tumorale.
 La concentration de CYFRA 21-1 est mesurée par des techniques immunologiques dans :
 le sérum,
 le plasma sanguin,
 les urines
-le liquide pleural[2].
+le liquide pleural.
 Le CYFRA 21-1 est aussi utilisé pour le suivi thérapeutique du cancer épidermoïde du col de l'utérus et du cancer de la vessie.
 </t>
         </is>
